--- a/output/a_31-03-2024.xlsx
+++ b/output/a_31-03-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,20 +1032,16 @@
           <t>531530K090</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>226045388319</t>
-        </is>
+      <c r="C9" t="n">
+        <v>226045388319</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/i~gAAOSwiTNl8uKX/$_1.JPG?set_id=8800005007']</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33602</t>
-        </is>
+      <c r="E9" t="n">
+        <v>33602</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1094,12 +1090,234 @@
           <t>53153-0K090 Toyota OEM Genuine GUIDE FR SIDE AIR</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
+      <c r="Y9" t="n">
+        <v>14</v>
       </c>
       <c r="Z9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5315333010</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>364323668525</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2NlgxNjAw/z/RscAAOSwLHtjv9IO/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>33644</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Panels:Fenders</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5315333010 / 53153-33010</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5315306010 / 53153-06010</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>ES350</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>['Front']</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Fender Insulator</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>LEXUS ES350 ES300H FRONT RIGHT SIDE FENDER INSULATOR PAD SEAL OEM 2019 - 2021 💠</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>[{'Year': '2021', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Ultra Luxury Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Ultra Luxury Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Ultra Luxury Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5315342010</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>265330131117</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTE5N1gxNTAw/z/4dkAAOSwEoRhT5z3/$_57.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>33602</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Engine Cooling Components:Radiators</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>531530R010</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>5315342010</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>['Right']</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Toyota OEM 2013-2018 RAV4 Radiator Air Baffle Deflector Right 531530R010 NIP</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5315342020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>166527517974</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwMFgxNjAw/z/W4cAAOSwQa5lkJM9/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9886</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Other Car &amp; Truck Parts &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>53153-42020</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5315342020</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2019-2024 Toyota RAV4 Front Right Air Guide Radiator GRILLE 53153-42020 RH OEM</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
